--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
@@ -369,185 +369,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>4.090030569194725</v>
-      </c>
-      <c r="D3">
-        <v>-4.11977425520006</v>
-      </c>
       <c r="E3">
         <v>-4.715480642250625</v>
       </c>
@@ -692,37 +683,22 @@
       <c r="AZ3">
         <v>-4.715480642250625</v>
       </c>
-      <c r="BA3">
-        <v>-4.715480642250625</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>3.977387661508458</v>
-      </c>
-      <c r="D4">
-        <v>-3.025848817087207</v>
-      </c>
-      <c r="E4">
-        <v>0.1110321191903019</v>
-      </c>
-      <c r="F4">
-        <v>4.427373160049175</v>
-      </c>
       <c r="G4">
-        <v>6.130685532900904</v>
+        <v>6.130685532900881</v>
       </c>
       <c r="H4">
-        <v>6.130685532900904</v>
+        <v>6.130685532900881</v>
       </c>
       <c r="I4">
-        <v>6.130685532900904</v>
+        <v>6.130685532900881</v>
       </c>
       <c r="J4">
-        <v>6.130685532900904</v>
+        <v>6.130685532900881</v>
       </c>
       <c r="K4">
         <v>6.130685532900904</v>
@@ -850,37 +826,16 @@
       <c r="AZ4">
         <v>6.130685532900904</v>
       </c>
-      <c r="BA4">
-        <v>6.130685532900904</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>4.200020823943218</v>
-      </c>
-      <c r="D5">
-        <v>-2.978087603453683</v>
-      </c>
-      <c r="E5">
-        <v>2.865732376168184</v>
-      </c>
-      <c r="F5">
-        <v>3.226174537211279</v>
-      </c>
-      <c r="G5">
-        <v>8.171687307827558</v>
-      </c>
-      <c r="H5">
-        <v>8.03322551738226</v>
-      </c>
       <c r="I5">
-        <v>8.703939237318981</v>
+        <v>8.703939237319025</v>
       </c>
       <c r="J5">
-        <v>8.703939237318981</v>
+        <v>8.703939237319025</v>
       </c>
       <c r="K5">
         <v>8.703939237318981</v>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>8.703939237318981</v>
       </c>
-      <c r="BA5">
-        <v>8.703939237318981</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.3624398645212912</v>
-      </c>
-      <c r="F6">
-        <v>0.8949615895967655</v>
-      </c>
-      <c r="G6">
-        <v>6.670125521000525</v>
-      </c>
-      <c r="H6">
-        <v>5.418310337745669</v>
-      </c>
-      <c r="I6">
-        <v>7.024938805895942</v>
-      </c>
-      <c r="J6">
-        <v>3.165505535041224</v>
-      </c>
       <c r="K6">
         <v>2.688274587589135</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>2.688274587589135</v>
       </c>
-      <c r="BA6">
-        <v>2.688274587589135</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>4.41487981736981</v>
-      </c>
-      <c r="H7">
-        <v>4.013082090548847</v>
-      </c>
-      <c r="I7">
-        <v>7.046499253150706</v>
-      </c>
-      <c r="J7">
-        <v>4.446394735420078</v>
-      </c>
       <c r="K7">
-        <v>2.539548427141214</v>
+        <v>1.490702606731831</v>
       </c>
       <c r="L7">
-        <v>0.6717944919448771</v>
+        <v>0.4454453461194552</v>
       </c>
       <c r="M7">
         <v>0.9946838291217786</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>0.9946838291217786</v>
       </c>
-      <c r="BA7">
-        <v>0.9946838291217786</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>5.25477589359109</v>
-      </c>
-      <c r="J8">
-        <v>3.657834541017801</v>
-      </c>
       <c r="K8">
-        <v>4.363113062274615</v>
+        <v>2.736923691861937</v>
       </c>
       <c r="L8">
-        <v>4.362483437055586</v>
+        <v>2.887668087172179</v>
       </c>
       <c r="M8">
-        <v>4.911355197600598</v>
+        <v>3.498411812952029</v>
       </c>
       <c r="N8">
-        <v>5.837587351923346</v>
+        <v>5.461771395837989</v>
       </c>
       <c r="O8">
         <v>5.562499360312567</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>5.562499360312567</v>
       </c>
-      <c r="BA8">
-        <v>5.562499360312567</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>3.386801883755153</v>
-      </c>
       <c r="L9">
-        <v>3.116327320929102</v>
+        <v>2.665853845175659</v>
       </c>
       <c r="M9">
-        <v>5.545850237090777</v>
+        <v>2.796235363530908</v>
       </c>
       <c r="N9">
-        <v>5.780640976280682</v>
+        <v>3.667647087004666</v>
       </c>
       <c r="O9">
-        <v>5.487340994505363</v>
+        <v>4.543069198269034</v>
       </c>
       <c r="P9">
-        <v>4.09237104505884</v>
+        <v>3.857137494611718</v>
       </c>
       <c r="Q9">
         <v>4.195080504802551</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>4.195080504802551</v>
       </c>
-      <c r="BA9">
-        <v>4.195080504802551</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>3.678049383224935</v>
-      </c>
       <c r="N10">
-        <v>3.869691255108476</v>
+        <v>3.241922060312707</v>
       </c>
       <c r="O10">
-        <v>5.44338882316493</v>
+        <v>3.457193745607912</v>
       </c>
       <c r="P10">
-        <v>4.970699295501024</v>
+        <v>3.60208822706134</v>
       </c>
       <c r="Q10">
-        <v>5.494748269944894</v>
+        <v>4.42512316868644</v>
       </c>
       <c r="R10">
-        <v>4.463171841920266</v>
+        <v>4.325618632128836</v>
       </c>
       <c r="S10">
         <v>4.230623896992025</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>4.230623896992025</v>
       </c>
-      <c r="BA10">
-        <v>4.230623896992025</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>3.959379485088022</v>
-      </c>
       <c r="P11">
-        <v>3.711847831087733</v>
+        <v>3.33541401017492</v>
       </c>
       <c r="Q11">
-        <v>4.576651881110827</v>
+        <v>3.497684176291571</v>
       </c>
       <c r="R11">
-        <v>4.815316608704245</v>
+        <v>3.998755562728684</v>
       </c>
       <c r="S11">
-        <v>4.590028883910469</v>
+        <v>4.210645455310114</v>
       </c>
       <c r="T11">
-        <v>4.466929963999822</v>
+        <v>4.439146757103352</v>
       </c>
       <c r="U11">
         <v>4.933871867981643</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>4.933871867981643</v>
       </c>
-      <c r="BA11">
-        <v>4.933871867981643</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>3.78352183381383</v>
-      </c>
       <c r="R12">
-        <v>4.060626713780868</v>
+        <v>3.527005305694031</v>
       </c>
       <c r="S12">
-        <v>4.269923387513286</v>
+        <v>3.584738032309165</v>
       </c>
       <c r="T12">
-        <v>4.347685442453564</v>
+        <v>3.861679870292711</v>
       </c>
       <c r="U12">
-        <v>4.971431636697599</v>
+        <v>4.757571096183799</v>
       </c>
       <c r="V12">
-        <v>6.043140264557834</v>
+        <v>5.787381971961936</v>
       </c>
       <c r="W12">
-        <v>5.805114579758142</v>
+        <v>5.723509166364238</v>
       </c>
       <c r="X12">
-        <v>5.36938819563848</v>
+        <v>5.222860865675738</v>
       </c>
       <c r="Y12">
         <v>5.456119081407906</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>5.456119081407906</v>
       </c>
-      <c r="BA12">
-        <v>5.456119081407906</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>3.706559615423055</v>
-      </c>
-      <c r="S13">
-        <v>3.714280173588325</v>
-      </c>
       <c r="T13">
-        <v>4.151162461694025</v>
+        <v>3.594510929080963</v>
       </c>
       <c r="U13">
-        <v>4.155186611168937</v>
+        <v>3.734834974488588</v>
       </c>
       <c r="V13">
-        <v>4.707135216842206</v>
+        <v>4.118094101621717</v>
       </c>
       <c r="W13">
-        <v>4.424737146793878</v>
+        <v>4.058053416301188</v>
       </c>
       <c r="X13">
-        <v>4.005038151193219</v>
+        <v>2.939060555390971</v>
       </c>
       <c r="Y13">
-        <v>4.568710393603181</v>
+        <v>4.569144243718659</v>
       </c>
       <c r="Z13">
-        <v>4.016715734612819</v>
+        <v>3.466212706516147</v>
       </c>
       <c r="AA13">
-        <v>4.46372163173876</v>
+        <v>4.674926984813466</v>
       </c>
       <c r="AB13">
-        <v>3.394578533164361</v>
+        <v>3.038115835571786</v>
       </c>
       <c r="AC13">
         <v>3.346849276607955</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>3.346849276607955</v>
       </c>
-      <c r="BA13">
-        <v>3.346849276607955</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>3.739664918124919</v>
-      </c>
-      <c r="U14">
-        <v>3.829388485628016</v>
-      </c>
-      <c r="V14">
-        <v>4.377020160467815</v>
-      </c>
       <c r="W14">
-        <v>4.191004220445205</v>
+        <v>3.849279581596932</v>
       </c>
       <c r="X14">
-        <v>4.174021790407001</v>
+        <v>3.673587953629398</v>
       </c>
       <c r="Y14">
-        <v>3.630070893707082</v>
+        <v>3.98814479861731</v>
       </c>
       <c r="Z14">
-        <v>3.850506268898912</v>
+        <v>3.597750881470851</v>
       </c>
       <c r="AA14">
-        <v>3.886160845343123</v>
+        <v>4.726969153629335</v>
       </c>
       <c r="AB14">
-        <v>3.0293693073427</v>
+        <v>1.154972712087221</v>
       </c>
       <c r="AC14">
-        <v>2.918306187999509</v>
+        <v>3.124801698476176</v>
       </c>
       <c r="AD14">
-        <v>3.033351895826453</v>
+        <v>3.370990011762443</v>
       </c>
       <c r="AE14">
-        <v>0.1697522665757845</v>
+        <v>0.4167846160013644</v>
       </c>
       <c r="AF14">
-        <v>-9.121145393096574</v>
+        <v>-9.2489161297999</v>
       </c>
       <c r="AG14">
         <v>-9.2489161297999</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>-9.2489161297999</v>
       </c>
-      <c r="BA14">
-        <v>-9.2489161297999</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>4.021296511656813</v>
-      </c>
-      <c r="W15">
-        <v>3.947854130826656</v>
-      </c>
-      <c r="X15">
-        <v>3.880034949799493</v>
-      </c>
-      <c r="Y15">
-        <v>3.394261979172142</v>
-      </c>
-      <c r="Z15">
-        <v>3.537805646926895</v>
-      </c>
       <c r="AA15">
-        <v>3.400783845718114</v>
+        <v>3.97322668464466</v>
       </c>
       <c r="AB15">
-        <v>3.507342110775813</v>
+        <v>3.352837059134517</v>
       </c>
       <c r="AC15">
-        <v>3.159113022317972</v>
+        <v>3.754874824891763</v>
       </c>
       <c r="AD15">
-        <v>3.157481522076955</v>
+        <v>3.843786543692795</v>
       </c>
       <c r="AE15">
-        <v>3.489644219722376</v>
+        <v>1.125570778878981</v>
       </c>
       <c r="AF15">
-        <v>8.901016312581778</v>
+        <v>-10.65745199005891</v>
       </c>
       <c r="AG15">
-        <v>3.311473853895319</v>
+        <v>-4.101394328717845</v>
       </c>
       <c r="AH15">
-        <v>-1.417336502781907</v>
+        <v>-1.861534891151506</v>
       </c>
       <c r="AI15">
-        <v>-0.7888645813307615</v>
+        <v>-1.488064879190421</v>
       </c>
       <c r="AJ15">
-        <v>-0.9984771834683381</v>
+        <v>-1.287084480507283</v>
       </c>
       <c r="AK15">
         <v>-1.287084480507283</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>-1.287084480507283</v>
       </c>
-      <c r="BA15">
-        <v>-1.287084480507283</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>4.369296026130942</v>
-      </c>
-      <c r="Z16">
-        <v>4.376286173973787</v>
-      </c>
-      <c r="AA16">
-        <v>4.373376263230755</v>
-      </c>
-      <c r="AB16">
-        <v>4.243661331625503</v>
-      </c>
-      <c r="AC16">
-        <v>3.26885356650588</v>
-      </c>
-      <c r="AD16">
-        <v>3.274507741752619</v>
-      </c>
       <c r="AE16">
-        <v>3.403436507712199</v>
+        <v>3.197223976813479</v>
       </c>
       <c r="AF16">
-        <v>5.204016463707029</v>
+        <v>2.090835525509216</v>
       </c>
       <c r="AG16">
-        <v>5.769045062689826</v>
+        <v>2.211767994230307</v>
       </c>
       <c r="AH16">
-        <v>7.257727473408626</v>
+        <v>3.108682697521514</v>
       </c>
       <c r="AI16">
-        <v>6.664201294442429</v>
+        <v>3.63609986063671</v>
       </c>
       <c r="AJ16">
-        <v>6.640559540111668</v>
+        <v>4.124305474197043</v>
       </c>
       <c r="AK16">
-        <v>6.859306473574622</v>
+        <v>3.801772939051373</v>
       </c>
       <c r="AL16">
-        <v>5.684409614634189</v>
+        <v>1.920033066224791</v>
       </c>
       <c r="AM16">
-        <v>2.213037610570945</v>
+        <v>1.712986619197032</v>
       </c>
       <c r="AN16">
-        <v>1.969423516885649</v>
+        <v>1.494343500592232</v>
       </c>
       <c r="AO16">
         <v>1.494343500592232</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>1.494343500592232</v>
       </c>
-      <c r="BA16">
-        <v>1.494343500592232</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>3.856148528577052</v>
-      </c>
-      <c r="AD17">
-        <v>3.874703162767212</v>
-      </c>
-      <c r="AE17">
-        <v>4.02645823668657</v>
-      </c>
-      <c r="AF17">
-        <v>4.393865156623233</v>
-      </c>
-      <c r="AG17">
-        <v>3.238828928630277</v>
-      </c>
       <c r="AH17">
-        <v>3.383273378629381</v>
+        <v>3.042266670461236</v>
       </c>
       <c r="AI17">
-        <v>3.420058451984986</v>
+        <v>3.386238465899294</v>
       </c>
       <c r="AJ17">
-        <v>3.420872473714032</v>
+        <v>3.537188017584847</v>
       </c>
       <c r="AK17">
-        <v>4.14412203939063</v>
+        <v>3.4135518151031</v>
       </c>
       <c r="AL17">
-        <v>7.845281703915563</v>
+        <v>2.774323849124349</v>
       </c>
       <c r="AM17">
-        <v>4.580434652382626</v>
+        <v>2.431967849366434</v>
       </c>
       <c r="AN17">
-        <v>5.449319663556662</v>
+        <v>1.882230726672129</v>
       </c>
       <c r="AO17">
-        <v>2.101763629409859</v>
+        <v>0.9099262091262217</v>
       </c>
       <c r="AP17">
-        <v>1.008942292657955</v>
+        <v>-0.07673633990846751</v>
       </c>
       <c r="AQ17">
-        <v>0.07497215279876901</v>
+        <v>-0.5717743519535134</v>
       </c>
       <c r="AR17">
-        <v>-0.6099727569748192</v>
+        <v>-0.6982718287330991</v>
       </c>
       <c r="AS17">
         <v>-0.6982718287330991</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>-0.6982718287330991</v>
       </c>
-      <c r="BA17">
-        <v>-0.6982718287330991</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>3.336924417461407</v>
-      </c>
-      <c r="AH18">
-        <v>3.059441778619409</v>
-      </c>
-      <c r="AI18">
-        <v>3.063138258782039</v>
-      </c>
-      <c r="AJ18">
-        <v>3.043685981398259</v>
-      </c>
-      <c r="AK18">
-        <v>3.191218237781746</v>
-      </c>
       <c r="AL18">
-        <v>3.402303027290343</v>
+        <v>3.109945199678088</v>
       </c>
       <c r="AM18">
-        <v>3.08248858570892</v>
+        <v>2.846831818037354</v>
       </c>
       <c r="AN18">
-        <v>3.315475598410345</v>
+        <v>2.624147399924981</v>
       </c>
       <c r="AO18">
-        <v>4.230775944183174</v>
+        <v>2.509020922481398</v>
       </c>
       <c r="AP18">
-        <v>3.697444518900217</v>
+        <v>2.180844122535164</v>
       </c>
       <c r="AQ18">
-        <v>4.040083433499064</v>
+        <v>1.732880403074311</v>
       </c>
       <c r="AR18">
-        <v>3.741282892331332</v>
+        <v>1.415512869596025</v>
       </c>
       <c r="AS18">
-        <v>1.982193683323752</v>
+        <v>0.1232424362653362</v>
       </c>
       <c r="AT18">
-        <v>0.8104515225652476</v>
+        <v>-0.5700058398449448</v>
       </c>
       <c r="AU18">
-        <v>-0.6331955302210424</v>
+        <v>-0.2867681914691111</v>
       </c>
       <c r="AV18">
-        <v>-0.00883970647999055</v>
+        <v>-0.4137309550271362</v>
       </c>
       <c r="AW18">
         <v>-0.4137309550271362</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>-0.4137309550271362</v>
       </c>
-      <c r="BA18">
-        <v>-0.4137309550271362</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>2.89764766590499</v>
-      </c>
-      <c r="AL19">
-        <v>3.121446798523242</v>
-      </c>
-      <c r="AM19">
-        <v>2.551028230901897</v>
-      </c>
-      <c r="AN19">
-        <v>2.620508775393926</v>
-      </c>
-      <c r="AO19">
-        <v>2.730813556174438</v>
-      </c>
       <c r="AP19">
-        <v>2.592113203425073</v>
+        <v>2.277761159626501</v>
       </c>
       <c r="AQ19">
-        <v>2.730775587638168</v>
+        <v>2.080657666875685</v>
       </c>
       <c r="AR19">
-        <v>3.57796913688091</v>
+        <v>1.947454963355622</v>
       </c>
       <c r="AS19">
-        <v>3.497515653566641</v>
+        <v>1.970932490584887</v>
       </c>
       <c r="AT19">
-        <v>3.991214083375483</v>
+        <v>1.804123797928292</v>
       </c>
       <c r="AU19">
-        <v>3.246859529593316</v>
+        <v>2.013081730696564</v>
       </c>
       <c r="AV19">
-        <v>3.914957842639755</v>
+        <v>1.790585695398428</v>
       </c>
       <c r="AW19">
-        <v>1.755378915560413</v>
+        <v>1.743978804508384</v>
       </c>
       <c r="AX19">
-        <v>1.482352664753539</v>
+        <v>0.946259771301472</v>
       </c>
       <c r="AY19">
-        <v>0.3259605486952699</v>
+        <v>0.4432539413513181</v>
       </c>
       <c r="AZ19">
-        <v>0.2249761948293294</v>
-      </c>
-      <c r="BA19">
         <v>0.2267356977060819</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>2.621317432368708</v>
-      </c>
-      <c r="AP20">
-        <v>2.475493151959096</v>
-      </c>
-      <c r="AQ20">
-        <v>2.438063778997157</v>
-      </c>
-      <c r="AR20">
-        <v>2.397830653844957</v>
-      </c>
-      <c r="AS20">
-        <v>2.653083771081599</v>
-      </c>
       <c r="AT20">
-        <v>2.80733651120959</v>
+        <v>1.825245137774356</v>
       </c>
       <c r="AU20">
-        <v>2.726593617904038</v>
+        <v>1.88619841018669</v>
       </c>
       <c r="AV20">
-        <v>1.415790069765954</v>
+        <v>1.881221885219464</v>
       </c>
       <c r="AW20">
-        <v>2.124536273519984</v>
+        <v>1.964863231054204</v>
       </c>
       <c r="AX20">
-        <v>1.56174683623842</v>
+        <v>1.770613036357038</v>
       </c>
       <c r="AY20">
-        <v>-0.6483827323783498</v>
+        <v>1.364481450639365</v>
       </c>
       <c r="AZ20">
-        <v>-0.1744462289204107</v>
-      </c>
-      <c r="BA20">
-        <v>-0.1590727640771283</v>
+        <v>0.9098136509666066</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>2.134437652974852</v>
-      </c>
-      <c r="AT21">
-        <v>2.083561593536576</v>
-      </c>
-      <c r="AU21">
-        <v>1.895751086826469</v>
-      </c>
-      <c r="AV21">
-        <v>1.964410879072687</v>
-      </c>
-      <c r="AW21">
-        <v>1.662652084285265</v>
-      </c>
       <c r="AX21">
-        <v>1.380534307633252</v>
+        <v>1.898066514521801</v>
       </c>
       <c r="AY21">
-        <v>0.4362071037371962</v>
+        <v>1.754988417644232</v>
       </c>
       <c r="AZ21">
-        <v>0.902575136298478</v>
-      </c>
-      <c r="BA21">
-        <v>0.7507334221598327</v>
+        <v>1.645330300307712</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.538364526651925</v>
-      </c>
-      <c r="AX22">
-        <v>1.452280515654092</v>
-      </c>
-      <c r="AY22">
-        <v>1.129109272429907</v>
-      </c>
-      <c r="AZ22">
-        <v>1.179310484820917</v>
-      </c>
-      <c r="BA22">
-        <v>0.8509169519642867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.8879134701709646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>-2.856524424985296</v>
       </c>
       <c r="AG17">
-        <v>-9.810777096850787</v>
+        <v>-15.33178339326725</v>
       </c>
       <c r="AH17">
         <v>-8.784173899737169</v>
@@ -2415,19 +2415,19 @@
         <v>0.1239622353166103</v>
       </c>
       <c r="AG18">
-        <v>-4.291312636561706</v>
+        <v>-32.76324525085026</v>
       </c>
       <c r="AH18">
-        <v>1.573231731123359</v>
+        <v>-3.95946710867876</v>
       </c>
       <c r="AI18">
-        <v>5.992199201897175</v>
+        <v>2.429847496219417</v>
       </c>
       <c r="AJ18">
-        <v>6.240787792289715</v>
+        <v>5.869785355670865</v>
       </c>
       <c r="AK18">
-        <v>5.797134106720514</v>
+        <v>5.67109238894663</v>
       </c>
       <c r="AL18">
         <v>5.110501195359984</v>
@@ -2486,31 +2486,31 @@
         <v>1.960586060478908</v>
       </c>
       <c r="AG19">
-        <v>1.43273032186777</v>
+        <v>-2.395294878658427</v>
       </c>
       <c r="AH19">
-        <v>1.945346463383624</v>
+        <v>1.899967248761669</v>
       </c>
       <c r="AI19">
-        <v>3.59700023027214</v>
+        <v>1.792810877347839</v>
       </c>
       <c r="AJ19">
-        <v>4.112367048326182</v>
+        <v>3.605326579534629</v>
       </c>
       <c r="AK19">
-        <v>4.062819790119954</v>
+        <v>3.828499188795353</v>
       </c>
       <c r="AL19">
-        <v>1.88131082127776</v>
+        <v>2.81586082900589</v>
       </c>
       <c r="AM19">
-        <v>5.158753599182209</v>
+        <v>6.606153085595312</v>
       </c>
       <c r="AN19">
-        <v>3.815916106066686</v>
+        <v>3.914343708692569</v>
       </c>
       <c r="AO19">
-        <v>4.232564748995715</v>
+        <v>4.516872489640855</v>
       </c>
       <c r="AP19">
         <v>5.120680133083599</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>3.594017575353359</v>
-      </c>
       <c r="AJ20">
-        <v>3.922397514222253</v>
+        <v>3.587525278287607</v>
       </c>
       <c r="AK20">
-        <v>3.866647377412713</v>
+        <v>3.844150746292896</v>
       </c>
       <c r="AL20">
-        <v>3.634854327648718</v>
+        <v>3.716467025957004</v>
       </c>
       <c r="AM20">
-        <v>3.207070318919869</v>
+        <v>3.745097222851923</v>
       </c>
       <c r="AN20">
-        <v>2.762663830671319</v>
+        <v>3.13932694169754</v>
       </c>
       <c r="AO20">
-        <v>2.257990710759383</v>
+        <v>2.877342779351988</v>
       </c>
       <c r="AP20">
-        <v>2.522545412785848</v>
+        <v>3.315588342229536</v>
       </c>
       <c r="AQ20">
-        <v>1.135459337362521</v>
+        <v>2.167139024648912</v>
       </c>
       <c r="AR20">
-        <v>0.757583445265464</v>
+        <v>1.294257050558856</v>
       </c>
       <c r="AS20">
-        <v>0.08070151925247959</v>
+        <v>0.307814096704262</v>
       </c>
       <c r="AT20">
         <v>-0.5532735011319234</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>3.710080561317963</v>
-      </c>
       <c r="AN21">
-        <v>3.231518420040191</v>
+        <v>3.613810486033886</v>
       </c>
       <c r="AO21">
-        <v>3.068333844838489</v>
+        <v>3.279924948314239</v>
       </c>
       <c r="AP21">
-        <v>3.109383270014843</v>
+        <v>3.232426836408941</v>
       </c>
       <c r="AQ21">
-        <v>2.746436727258894</v>
+        <v>3.134745001805284</v>
       </c>
       <c r="AR21">
-        <v>2.564429185896056</v>
+        <v>2.917701676058626</v>
       </c>
       <c r="AS21">
-        <v>1.796717073915977</v>
+        <v>2.262351844311405</v>
       </c>
       <c r="AT21">
-        <v>-0.657715646732393</v>
+        <v>1.164216590036715</v>
       </c>
       <c r="AU21">
-        <v>-2.103425609777143</v>
+        <v>-1.085416662684091</v>
       </c>
       <c r="AV21">
-        <v>-0.152046383567539</v>
+        <v>-0.5115946691845119</v>
       </c>
       <c r="AW21">
-        <v>-0.9685570952743805</v>
+        <v>-0.7472201672602652</v>
       </c>
       <c r="AX21">
         <v>-1.069674659641462</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>2.818513168799464</v>
-      </c>
       <c r="AR22">
-        <v>2.770924849600132</v>
+        <v>2.863579460845456</v>
       </c>
       <c r="AS22">
-        <v>2.569132361709481</v>
+        <v>2.698673078500624</v>
       </c>
       <c r="AT22">
-        <v>2.509666180909575</v>
+        <v>2.468122977118936</v>
       </c>
       <c r="AU22">
-        <v>2.179038063425076</v>
+        <v>2.519656924298674</v>
       </c>
       <c r="AV22">
-        <v>2.659925441240518</v>
+        <v>2.469032409329386</v>
       </c>
       <c r="AW22">
-        <v>1.778332450996523</v>
+        <v>2.224195982330812</v>
       </c>
       <c r="AX22">
-        <v>0.5636794832278413</v>
+        <v>1.225642290422613</v>
       </c>
       <c r="AY22">
-        <v>-2.92939668194816</v>
+        <v>-1.489818204583271</v>
       </c>
       <c r="AZ22">
-        <v>-1.93082584212636</v>
+        <v>-1.623731782294058</v>
       </c>
       <c r="BA22">
-        <v>-2.436529450546909</v>
+        <v>-2.363600739745275</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>2.177178471191765</v>
-      </c>
       <c r="AV23">
-        <v>2.364379038957942</v>
+        <v>2.355904523540553</v>
       </c>
       <c r="AW23">
-        <v>2.156500900800573</v>
+        <v>2.258659497377158</v>
       </c>
       <c r="AX23">
-        <v>2.256485797265806</v>
+        <v>2.106351054263089</v>
       </c>
       <c r="AY23">
-        <v>1.921265997709742</v>
+        <v>2.303489066780262</v>
       </c>
       <c r="AZ23">
-        <v>2.2373336846083</v>
+        <v>2.46173380616781</v>
       </c>
       <c r="BA23">
-        <v>1.970944416887122</v>
+        <v>2.117909860585021</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>1.939454003491137</v>
-      </c>
       <c r="AZ24">
-        <v>1.958974119738799</v>
+        <v>2.035691341721058</v>
       </c>
       <c r="BA24">
-        <v>1.888391607889361</v>
+        <v>1.917071481773824</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>-14.45332333832744</v>
+      </c>
+      <c r="G3">
+        <v>-14.35891259563729</v>
+      </c>
+      <c r="H3">
+        <v>-14.19945931766765</v>
+      </c>
+      <c r="I3">
+        <v>-14.32540669406603</v>
+      </c>
+      <c r="J3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="K3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="L3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="M3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="N3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="O3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="P3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Q3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="R3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="S3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="T3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="U3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="V3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="W3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="X3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Y3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Z3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AA3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AB3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AC3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AD3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AE3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AF3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AG3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AH3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AI3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AJ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AK3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AL3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AM3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AN3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AO3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AP3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AQ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AR3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AS3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AT3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AU3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AV3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AW3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AX3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AY3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AZ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="BA3">
+        <v>-14.1223525803845</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>11.13090654781821</v>
-      </c>
-      <c r="C4">
-        <v>10.95393905523863</v>
-      </c>
-      <c r="D4">
-        <v>11.07868559841723</v>
-      </c>
-      <c r="E4">
-        <v>11.07868559841723</v>
-      </c>
-      <c r="F4">
-        <v>10.85021834978603</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>10.85021834978603</v>
+        <v>4.317520552235576</v>
       </c>
       <c r="H4">
-        <v>10.85021834978603</v>
+        <v>8.600536527919612</v>
       </c>
       <c r="I4">
-        <v>10.85021834978603</v>
+        <v>8.726337206847944</v>
       </c>
       <c r="J4">
-        <v>10.85021834978603</v>
+        <v>7.955274439957338</v>
       </c>
       <c r="K4">
-        <v>10.85021834978603</v>
+        <v>7.955274439957338</v>
       </c>
       <c r="L4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="M4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="N4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="O4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="P4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Q4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="R4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="S4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="T4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="U4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="V4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="W4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="X4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Y4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Z4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AA4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AB4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AC4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AD4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AE4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AF4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AG4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AH4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AI4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AJ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AK4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AL4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AM4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AN4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AO4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AP4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AQ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AR4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AS4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AT4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AU4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AV4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AW4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AX4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AY4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AZ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="BA4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>4.672550446571067</v>
-      </c>
-      <c r="E5">
-        <v>4.684463748392487</v>
-      </c>
-      <c r="F5">
-        <v>4.884527764493152</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>4.884527764493152</v>
+        <v>3.856664261949816</v>
       </c>
       <c r="H5">
-        <v>4.48949050823837</v>
+        <v>9.002271992040356</v>
       </c>
       <c r="I5">
-        <v>4.48949050823837</v>
+        <v>10.48563750975204</v>
       </c>
       <c r="J5">
-        <v>4.48949050823837</v>
+        <v>10.25770250047622</v>
       </c>
       <c r="K5">
-        <v>4.48949050823837</v>
+        <v>10.39929827784976</v>
       </c>
       <c r="L5">
-        <v>4.48949050823837</v>
+        <v>10.03764224178227</v>
       </c>
       <c r="M5">
-        <v>4.48949050823837</v>
+        <v>10.03764224178227</v>
       </c>
       <c r="N5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="O5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="P5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Q5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="R5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="S5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="T5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="U5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="V5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="W5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="X5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Y5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Z5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AA5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AB5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AC5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AD5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AE5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AF5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AG5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AH5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AI5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AJ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AK5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AL5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AM5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AN5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AO5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AP5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AQ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AR5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AS5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AT5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AU5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AV5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AW5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AX5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AY5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AZ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="BA5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>-14.45332333832743</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-14.35891259563729</v>
+        <v>2.905441271786136</v>
       </c>
       <c r="H6">
-        <v>-14.19945931766767</v>
+        <v>4.361712306140975</v>
       </c>
       <c r="I6">
-        <v>-14.32540669406604</v>
+        <v>5.658864198748481</v>
       </c>
       <c r="J6">
-        <v>-14.1223525803845</v>
+        <v>7.550992341868912</v>
       </c>
       <c r="K6">
-        <v>-14.1223525803845</v>
+        <v>4.658806034121588</v>
       </c>
       <c r="L6">
-        <v>-14.1223525803845</v>
+        <v>4.639893381363192</v>
       </c>
       <c r="M6">
-        <v>-14.1223525803845</v>
+        <v>4.889327527458143</v>
       </c>
       <c r="N6">
-        <v>-14.1223525803845</v>
+        <v>4.491772175554365</v>
       </c>
       <c r="O6">
-        <v>-14.1223525803845</v>
+        <v>4.491772175554365</v>
       </c>
       <c r="P6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Q6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="R6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="S6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="T6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="U6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="V6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="W6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="X6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Y6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Z6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AA6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AB6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AC6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AD6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AE6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AF6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AG6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AH6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AI6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AJ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AK6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AL6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AM6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AN6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AO6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AP6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AQ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AR6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AS6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AT6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AU6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AV6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AW6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AX6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AY6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AZ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="BA6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>4.317520552235576</v>
-      </c>
-      <c r="H7">
-        <v>8.600536527919633</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>8.726337206847944</v>
+        <v>4.836668326099991</v>
       </c>
       <c r="J7">
-        <v>7.955274439957316</v>
+        <v>5.055653990403108</v>
       </c>
       <c r="K7">
-        <v>7.955274439957316</v>
+        <v>5.409232631930538</v>
       </c>
       <c r="L7">
-        <v>7.235571181590661</v>
+        <v>5.799303245920906</v>
       </c>
       <c r="M7">
-        <v>7.235571181590661</v>
+        <v>-0.8693696108860949</v>
       </c>
       <c r="N7">
-        <v>7.235571181590661</v>
+        <v>0.3058963467304165</v>
       </c>
       <c r="O7">
-        <v>7.235571181590661</v>
+        <v>0.540318794409167</v>
       </c>
       <c r="P7">
-        <v>7.235571181590661</v>
+        <v>1.052434495141896</v>
       </c>
       <c r="Q7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="R7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="S7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="T7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="U7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="V7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="W7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="X7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="Y7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="Z7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AA7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AB7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AC7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AD7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AE7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AF7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AG7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AH7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AI7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AJ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AK7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AL7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AM7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AN7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AO7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AP7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AQ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AR7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AS7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AT7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AU7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AV7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AW7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AX7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AY7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AZ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="BA7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>3.856664261949816</v>
-      </c>
-      <c r="H8">
-        <v>9.002271992040312</v>
-      </c>
-      <c r="I8">
-        <v>10.48563750975209</v>
-      </c>
-      <c r="J8">
-        <v>10.25770250047622</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>10.39929827784976</v>
+        <v>4.753723621914574</v>
       </c>
       <c r="L8">
-        <v>10.03764224178227</v>
+        <v>4.634244012784117</v>
       </c>
       <c r="M8">
-        <v>10.03764224178227</v>
+        <v>2.311254283099795</v>
       </c>
       <c r="N8">
-        <v>9.488155060723313</v>
+        <v>2.638010271840918</v>
       </c>
       <c r="O8">
-        <v>9.488155060723313</v>
+        <v>4.057580120451143</v>
       </c>
       <c r="P8">
-        <v>9.488155060723313</v>
+        <v>4.068173739091874</v>
       </c>
       <c r="Q8">
-        <v>9.488155060723313</v>
+        <v>3.914674283662856</v>
       </c>
       <c r="R8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="S8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="T8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="U8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="V8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="W8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="X8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="Y8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="Z8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AA8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AB8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AC8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AD8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AE8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AF8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AG8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AH8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AI8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AJ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AK8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AL8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AM8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AN8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AO8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AP8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AQ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AR8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AS8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AT8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AU8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AV8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AW8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AX8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AY8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AZ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="BA8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>2.905441271786113</v>
-      </c>
-      <c r="H9">
-        <v>4.361712306140997</v>
-      </c>
-      <c r="I9">
-        <v>5.658864198748459</v>
-      </c>
-      <c r="J9">
-        <v>7.550992341868956</v>
-      </c>
-      <c r="K9">
-        <v>4.65880603412161</v>
-      </c>
-      <c r="L9">
-        <v>4.639893381363169</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>4.889327527458143</v>
+        <v>3.679496026164575</v>
       </c>
       <c r="N9">
-        <v>4.491772175554365</v>
+        <v>3.636139790376669</v>
       </c>
       <c r="O9">
-        <v>4.491772175554365</v>
+        <v>3.242274909585041</v>
       </c>
       <c r="P9">
-        <v>4.445724792911876</v>
+        <v>5.156937396706884</v>
       </c>
       <c r="Q9">
-        <v>4.445724792911876</v>
+        <v>3.942841799197616</v>
       </c>
       <c r="R9">
-        <v>4.445724792911876</v>
+        <v>4.984288257750213</v>
       </c>
       <c r="S9">
-        <v>4.445724792911876</v>
+        <v>5.031290904074326</v>
       </c>
       <c r="T9">
-        <v>4.445724792911876</v>
+        <v>4.40687039585641</v>
       </c>
       <c r="U9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="V9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="W9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="X9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="Y9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="Z9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AA9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AB9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AC9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AD9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AE9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AF9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AG9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AH9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AI9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AJ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AK9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AL9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AM9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AN9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AO9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AP9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AQ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AR9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AS9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AT9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AU9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AV9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AW9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AX9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AY9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AZ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="BA9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>4.836668326099991</v>
-      </c>
-      <c r="J10">
-        <v>5.055653990403108</v>
-      </c>
-      <c r="K10">
-        <v>5.409232631930561</v>
-      </c>
-      <c r="L10">
-        <v>5.799303245920884</v>
-      </c>
-      <c r="M10">
-        <v>-0.8693696108860949</v>
-      </c>
-      <c r="N10">
-        <v>0.3058963467304165</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.540318794409167</v>
+        <v>3.831305286100672</v>
       </c>
       <c r="P10">
-        <v>1.052434495141918</v>
+        <v>4.151139366479262</v>
       </c>
       <c r="Q10">
-        <v>1.101453765199745</v>
+        <v>3.826653192455653</v>
       </c>
       <c r="R10">
-        <v>1.101453765199745</v>
+        <v>3.4064284328156</v>
       </c>
       <c r="S10">
-        <v>1.101453765199745</v>
+        <v>2.435545128806438</v>
       </c>
       <c r="T10">
-        <v>1.101453765199745</v>
+        <v>1.878184267712912</v>
       </c>
       <c r="U10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="V10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="W10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="X10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="Y10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="Z10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AA10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AB10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AC10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AD10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AE10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AF10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AG10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AH10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AI10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AJ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AK10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AL10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AM10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AN10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AO10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AP10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AQ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AR10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AS10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AT10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AU10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AV10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AW10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AX10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AY10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AZ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="BA10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>4.753723621914574</v>
-      </c>
-      <c r="L11">
-        <v>4.634244012784094</v>
-      </c>
-      <c r="M11">
-        <v>2.311254283099773</v>
-      </c>
-      <c r="N11">
-        <v>2.638010271840896</v>
-      </c>
-      <c r="O11">
-        <v>4.057580120451165</v>
-      </c>
-      <c r="P11">
-        <v>4.068173739091874</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.914674283662856</v>
+        <v>3.936776828781152</v>
       </c>
       <c r="R11">
-        <v>3.917168917088798</v>
+        <v>3.929274112291892</v>
       </c>
       <c r="S11">
-        <v>3.917168917088798</v>
+        <v>4.047617271894777</v>
       </c>
       <c r="T11">
-        <v>3.917168917088798</v>
+        <v>2.129835064860441</v>
       </c>
       <c r="U11">
-        <v>3.917168917088798</v>
+        <v>4.218672000695523</v>
       </c>
       <c r="V11">
-        <v>3.917168917088798</v>
+        <v>4.695933104194361</v>
       </c>
       <c r="W11">
-        <v>3.917168917088798</v>
+        <v>4.709396002486788</v>
       </c>
       <c r="X11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="Y11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="Z11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AA11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AB11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AC11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AD11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AE11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AF11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AG11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AH11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AI11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AJ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AK11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AL11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AM11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AN11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AO11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AP11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AQ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AR11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AS11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AT11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AU11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AV11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AW11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AX11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AY11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AZ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="BA11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>3.679496026164553</v>
-      </c>
-      <c r="N12">
-        <v>3.636139790376647</v>
-      </c>
-      <c r="O12">
-        <v>3.242274909585041</v>
-      </c>
-      <c r="P12">
-        <v>5.156937396706884</v>
-      </c>
-      <c r="Q12">
-        <v>3.942841799197594</v>
-      </c>
-      <c r="R12">
-        <v>4.984288257750213</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>5.031290904074348</v>
+        <v>3.927071420163264</v>
       </c>
       <c r="T12">
-        <v>4.406870395856433</v>
+        <v>3.575628253785301</v>
       </c>
       <c r="U12">
-        <v>4.449305425651406</v>
+        <v>4.02808863798465</v>
       </c>
       <c r="V12">
-        <v>4.449305425651406</v>
+        <v>5.022591279638045</v>
       </c>
       <c r="W12">
-        <v>4.449305425651406</v>
+        <v>7.356933926419673</v>
       </c>
       <c r="X12">
-        <v>4.449305425651406</v>
+        <v>4.174017263680696</v>
       </c>
       <c r="Y12">
-        <v>4.449305425651406</v>
+        <v>5.326449347906292</v>
       </c>
       <c r="Z12">
-        <v>4.449305425651406</v>
+        <v>4.892602738886098</v>
       </c>
       <c r="AA12">
-        <v>4.449305425651406</v>
+        <v>4.957105241469595</v>
       </c>
       <c r="AB12">
-        <v>4.449305425651406</v>
+        <v>4.971495141117499</v>
       </c>
       <c r="AC12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AD12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AE12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AF12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AG12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AH12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AI12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AJ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AK12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AL12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AM12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AN12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AO12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AP12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AQ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AR12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AS12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AT12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AU12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AV12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AW12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AX12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AY12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AZ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="BA12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>3.831305286100672</v>
-      </c>
-      <c r="P13">
-        <v>4.151139366479262</v>
-      </c>
-      <c r="Q13">
-        <v>3.826653192455631</v>
-      </c>
-      <c r="R13">
-        <v>3.4064284328156</v>
-      </c>
-      <c r="S13">
-        <v>2.435545128806416</v>
-      </c>
-      <c r="T13">
-        <v>1.878184267712912</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.929818022700958</v>
+        <v>3.864720454791826</v>
       </c>
       <c r="V13">
-        <v>1.929818022700958</v>
+        <v>3.862173948030456</v>
       </c>
       <c r="W13">
-        <v>1.929818022700958</v>
+        <v>4.456100749631386</v>
       </c>
       <c r="X13">
-        <v>1.929818022700958</v>
+        <v>2.074691389445271</v>
       </c>
       <c r="Y13">
-        <v>1.929818022700958</v>
+        <v>3.123778338720062</v>
       </c>
       <c r="Z13">
-        <v>1.929818022700958</v>
+        <v>0.6513682883433347</v>
       </c>
       <c r="AA13">
-        <v>1.929818022700958</v>
+        <v>1.443764323860086</v>
       </c>
       <c r="AB13">
-        <v>1.929818022700958</v>
+        <v>1.69934837574528</v>
       </c>
       <c r="AC13">
-        <v>1.929818022700958</v>
+        <v>0.4648465628725118</v>
       </c>
       <c r="AD13">
-        <v>1.929818022700958</v>
+        <v>0.8049382522247184</v>
       </c>
       <c r="AE13">
-        <v>1.929818022700958</v>
+        <v>0.7248455917398866</v>
       </c>
       <c r="AF13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AG13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AH13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AI13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AJ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AK13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AL13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AM13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AN13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AO13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AP13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AQ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AR13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AS13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AT13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AU13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AV13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AW13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AX13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AY13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AZ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="BA13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>3.936776828781152</v>
-      </c>
-      <c r="R14">
-        <v>3.929274112291914</v>
-      </c>
-      <c r="S14">
-        <v>4.047617271894799</v>
-      </c>
-      <c r="T14">
-        <v>2.129835064860464</v>
-      </c>
-      <c r="U14">
-        <v>4.218672000695523</v>
-      </c>
-      <c r="V14">
-        <v>4.695933104194339</v>
-      </c>
-      <c r="W14">
-        <v>4.70939600248681</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>4.693514706708668</v>
+        <v>3.301041349062128</v>
       </c>
       <c r="Y14">
-        <v>4.693514706708668</v>
+        <v>3.451574987915795</v>
       </c>
       <c r="Z14">
-        <v>4.693514706708668</v>
+        <v>2.992899550471861</v>
       </c>
       <c r="AA14">
-        <v>4.693514706708668</v>
+        <v>2.608754752952369</v>
       </c>
       <c r="AB14">
-        <v>4.693514706708668</v>
+        <v>3.362240252406923</v>
       </c>
       <c r="AC14">
-        <v>4.693514706708668</v>
+        <v>0.4030385202844711</v>
       </c>
       <c r="AD14">
-        <v>4.693514706708668</v>
+        <v>3.036929265763488</v>
       </c>
       <c r="AE14">
-        <v>4.693514706708668</v>
+        <v>0.6426358958243172</v>
       </c>
       <c r="AF14">
-        <v>4.693514706708668</v>
+        <v>-2.856524424985296</v>
       </c>
       <c r="AG14">
-        <v>4.693514706708668</v>
+        <v>-15.33178339326724</v>
       </c>
       <c r="AH14">
-        <v>4.693514706708668</v>
+        <v>-8.784173899737169</v>
       </c>
       <c r="AI14">
-        <v>4.693514706708668</v>
+        <v>-8.818502995119548</v>
       </c>
       <c r="AJ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AK14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AL14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AM14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AN14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AO14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AP14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AQ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AR14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AS14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AT14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AU14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AV14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AW14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AX14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AY14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AZ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="BA14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>3.927071420163264</v>
-      </c>
-      <c r="T15">
-        <v>3.575628253785279</v>
-      </c>
-      <c r="U15">
-        <v>4.02808863798465</v>
-      </c>
-      <c r="V15">
-        <v>5.022591279638045</v>
-      </c>
-      <c r="W15">
-        <v>7.356933926419673</v>
-      </c>
-      <c r="X15">
-        <v>4.174017263680696</v>
-      </c>
-      <c r="Y15">
-        <v>5.32644934790627</v>
-      </c>
-      <c r="Z15">
-        <v>4.892602738886098</v>
-      </c>
-      <c r="AA15">
-        <v>4.957105241469595</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>4.971495141117499</v>
+        <v>3.205440532475468</v>
       </c>
       <c r="AC15">
-        <v>4.873158811425471</v>
+        <v>2.540705787270237</v>
       </c>
       <c r="AD15">
-        <v>4.873158811425471</v>
+        <v>2.69419753777409</v>
       </c>
       <c r="AE15">
-        <v>4.873158811425471</v>
+        <v>2.24075411271687</v>
       </c>
       <c r="AF15">
-        <v>4.873158811425471</v>
+        <v>0.1239622353166103</v>
       </c>
       <c r="AG15">
-        <v>4.873158811425471</v>
+        <v>-32.76324525085027</v>
       </c>
       <c r="AH15">
-        <v>4.873158811425471</v>
+        <v>-3.95946710867876</v>
       </c>
       <c r="AI15">
-        <v>4.873158811425471</v>
+        <v>2.429847496219417</v>
       </c>
       <c r="AJ15">
-        <v>4.873158811425471</v>
+        <v>5.869785355670865</v>
       </c>
       <c r="AK15">
-        <v>4.873158811425471</v>
+        <v>5.671092388946652</v>
       </c>
       <c r="AL15">
-        <v>4.873158811425471</v>
+        <v>5.110501195359984</v>
       </c>
       <c r="AM15">
-        <v>4.873158811425471</v>
+        <v>6.067530320832093</v>
       </c>
       <c r="AN15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AO15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AP15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AQ15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AR15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AS15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AT15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AU15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AV15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AW15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AX15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AY15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AZ15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="BA15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>3.864720454791826</v>
-      </c>
-      <c r="V16">
-        <v>3.862173948030434</v>
-      </c>
-      <c r="W16">
-        <v>4.456100749631386</v>
-      </c>
-      <c r="X16">
-        <v>2.074691389445271</v>
-      </c>
-      <c r="Y16">
-        <v>3.123778338720062</v>
-      </c>
-      <c r="Z16">
-        <v>0.6513682883433347</v>
-      </c>
-      <c r="AA16">
-        <v>1.443764323860086</v>
-      </c>
-      <c r="AB16">
-        <v>1.699348375745302</v>
-      </c>
-      <c r="AC16">
-        <v>0.4648465628725118</v>
-      </c>
-      <c r="AD16">
-        <v>0.8049382522247184</v>
-      </c>
-      <c r="AE16">
-        <v>0.7248455917398866</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>0.862099696137153</v>
+        <v>1.960586060478908</v>
       </c>
       <c r="AG16">
-        <v>0.862099696137153</v>
+        <v>-2.395294878658427</v>
       </c>
       <c r="AH16">
-        <v>0.862099696137153</v>
+        <v>1.899967248761669</v>
       </c>
       <c r="AI16">
-        <v>0.862099696137153</v>
+        <v>1.792810877347839</v>
       </c>
       <c r="AJ16">
-        <v>0.862099696137153</v>
+        <v>3.605326579534629</v>
       </c>
       <c r="AK16">
-        <v>0.862099696137153</v>
+        <v>3.828499188795376</v>
       </c>
       <c r="AL16">
-        <v>0.862099696137153</v>
+        <v>2.81586082900589</v>
       </c>
       <c r="AM16">
-        <v>0.862099696137153</v>
+        <v>6.606153085595312</v>
       </c>
       <c r="AN16">
-        <v>0.862099696137153</v>
+        <v>3.914343708692569</v>
       </c>
       <c r="AO16">
-        <v>0.862099696137153</v>
+        <v>4.516872489640855</v>
       </c>
       <c r="AP16">
-        <v>0.862099696137153</v>
+        <v>5.120680133083622</v>
       </c>
       <c r="AQ16">
-        <v>0.862099696137153</v>
+        <v>5.225964436448516</v>
       </c>
       <c r="AR16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AS16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AT16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AU16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AV16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AW16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AX16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AY16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AZ16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="BA16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>3.301041349062128</v>
-      </c>
-      <c r="Y17">
-        <v>3.451574987915795</v>
-      </c>
-      <c r="Z17">
-        <v>2.992899550471861</v>
-      </c>
-      <c r="AA17">
-        <v>2.608754752952369</v>
-      </c>
-      <c r="AB17">
-        <v>3.362240252406901</v>
-      </c>
-      <c r="AC17">
-        <v>0.4030385202844711</v>
-      </c>
-      <c r="AD17">
-        <v>3.036929265763488</v>
-      </c>
-      <c r="AE17">
-        <v>0.642635895824295</v>
-      </c>
-      <c r="AF17">
-        <v>-2.856524424985296</v>
-      </c>
-      <c r="AG17">
-        <v>-15.33178339326725</v>
-      </c>
-      <c r="AH17">
-        <v>-8.784173899737169</v>
-      </c>
-      <c r="AI17">
-        <v>-8.818502995119569</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-8.794825048137477</v>
+        <v>3.587525278287607</v>
       </c>
       <c r="AK17">
-        <v>-8.794825048137477</v>
+        <v>3.844150746292896</v>
       </c>
       <c r="AL17">
-        <v>-8.794825048137477</v>
+        <v>3.716467025957049</v>
       </c>
       <c r="AM17">
-        <v>-8.794825048137477</v>
+        <v>3.745097222851923</v>
       </c>
       <c r="AN17">
-        <v>-8.794825048137477</v>
+        <v>3.13932694169754</v>
       </c>
       <c r="AO17">
-        <v>-8.794825048137477</v>
+        <v>2.87734277935201</v>
       </c>
       <c r="AP17">
-        <v>-8.794825048137477</v>
+        <v>3.315588342229514</v>
       </c>
       <c r="AQ17">
-        <v>-8.794825048137477</v>
+        <v>2.167139024648912</v>
       </c>
       <c r="AR17">
-        <v>-8.794825048137477</v>
+        <v>1.294257050558856</v>
       </c>
       <c r="AS17">
-        <v>-8.794825048137477</v>
+        <v>0.3078140967042398</v>
       </c>
       <c r="AT17">
-        <v>-8.794825048137477</v>
+        <v>-0.5532735011319123</v>
       </c>
       <c r="AU17">
-        <v>-8.794825048137477</v>
+        <v>-0.5374742517153308</v>
       </c>
       <c r="AV17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AW17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AX17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AY17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AZ17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="BA17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>3.205440532475468</v>
-      </c>
-      <c r="AC18">
-        <v>2.540705787270237</v>
-      </c>
-      <c r="AD18">
-        <v>2.69419753777409</v>
-      </c>
-      <c r="AE18">
-        <v>2.24075411271687</v>
-      </c>
-      <c r="AF18">
-        <v>0.1239622353166103</v>
-      </c>
-      <c r="AG18">
-        <v>-32.76324525085026</v>
-      </c>
-      <c r="AH18">
-        <v>-3.95946710867876</v>
-      </c>
-      <c r="AI18">
-        <v>2.429847496219417</v>
-      </c>
-      <c r="AJ18">
-        <v>5.869785355670865</v>
-      </c>
-      <c r="AK18">
-        <v>5.67109238894663</v>
-      </c>
-      <c r="AL18">
-        <v>5.110501195359984</v>
-      </c>
-      <c r="AM18">
-        <v>6.067530320832093</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>6.095721945083143</v>
+        <v>3.613810486033864</v>
       </c>
       <c r="AO18">
-        <v>6.095721945083143</v>
+        <v>3.279924948314239</v>
       </c>
       <c r="AP18">
-        <v>6.095721945083143</v>
+        <v>3.232426836408941</v>
       </c>
       <c r="AQ18">
-        <v>6.095721945083143</v>
+        <v>3.134745001805284</v>
       </c>
       <c r="AR18">
-        <v>6.095721945083143</v>
+        <v>2.917701676058604</v>
       </c>
       <c r="AS18">
-        <v>6.095721945083143</v>
+        <v>2.262351844311428</v>
       </c>
       <c r="AT18">
-        <v>6.095721945083143</v>
+        <v>1.164216590036715</v>
       </c>
       <c r="AU18">
-        <v>6.095721945083143</v>
+        <v>-1.085416662684091</v>
       </c>
       <c r="AV18">
-        <v>6.095721945083143</v>
+        <v>-0.5115946691845119</v>
       </c>
       <c r="AW18">
-        <v>6.095721945083143</v>
+        <v>-0.7472201672602652</v>
       </c>
       <c r="AX18">
-        <v>6.095721945083143</v>
+        <v>-1.069674659641462</v>
       </c>
       <c r="AY18">
-        <v>6.095721945083143</v>
+        <v>-1.011423455352589</v>
       </c>
       <c r="AZ18">
-        <v>6.095721945083143</v>
+        <v>-1.48753958890171</v>
       </c>
       <c r="BA18">
-        <v>6.095721945083143</v>
+        <v>-1.48753958890171</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>1.960586060478908</v>
-      </c>
-      <c r="AG19">
-        <v>-2.395294878658427</v>
-      </c>
-      <c r="AH19">
-        <v>1.899967248761669</v>
-      </c>
-      <c r="AI19">
-        <v>1.792810877347839</v>
-      </c>
-      <c r="AJ19">
-        <v>3.605326579534629</v>
-      </c>
-      <c r="AK19">
-        <v>3.828499188795353</v>
-      </c>
-      <c r="AL19">
-        <v>2.81586082900589</v>
-      </c>
-      <c r="AM19">
-        <v>6.606153085595312</v>
-      </c>
-      <c r="AN19">
-        <v>3.914343708692569</v>
-      </c>
-      <c r="AO19">
-        <v>4.516872489640855</v>
-      </c>
-      <c r="AP19">
-        <v>5.120680133083599</v>
-      </c>
-      <c r="AQ19">
-        <v>5.225964436448516</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>5.588511616267167</v>
+        <v>2.863579460845433</v>
       </c>
       <c r="AS19">
-        <v>5.588511616267167</v>
+        <v>2.698673078500624</v>
       </c>
       <c r="AT19">
-        <v>5.588511616267167</v>
+        <v>2.468122977118936</v>
       </c>
       <c r="AU19">
-        <v>5.588511616267167</v>
+        <v>2.519656924298674</v>
       </c>
       <c r="AV19">
-        <v>5.588511616267167</v>
+        <v>2.469032409329408</v>
       </c>
       <c r="AW19">
-        <v>5.588511616267167</v>
+        <v>2.224195982330812</v>
       </c>
       <c r="AX19">
-        <v>5.588511616267167</v>
+        <v>1.225642290422613</v>
       </c>
       <c r="AY19">
-        <v>5.588511616267167</v>
+        <v>-1.489818204583293</v>
       </c>
       <c r="AZ19">
-        <v>5.588511616267167</v>
+        <v>-1.623731782294036</v>
       </c>
       <c r="BA19">
-        <v>5.588511616267167</v>
+        <v>-2.363600739745275</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>3.587525278287607</v>
-      </c>
-      <c r="AK20">
-        <v>3.844150746292896</v>
-      </c>
-      <c r="AL20">
-        <v>3.716467025957004</v>
-      </c>
-      <c r="AM20">
-        <v>3.745097222851923</v>
-      </c>
-      <c r="AN20">
-        <v>3.13932694169754</v>
-      </c>
-      <c r="AO20">
-        <v>2.877342779351988</v>
-      </c>
-      <c r="AP20">
-        <v>3.315588342229536</v>
-      </c>
-      <c r="AQ20">
-        <v>2.167139024648912</v>
-      </c>
-      <c r="AR20">
-        <v>1.294257050558856</v>
-      </c>
-      <c r="AS20">
-        <v>0.307814096704262</v>
-      </c>
-      <c r="AT20">
-        <v>-0.5532735011319234</v>
-      </c>
-      <c r="AU20">
-        <v>-0.5374742517153308</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.008466500317672043</v>
+        <v>2.355904523540575</v>
       </c>
       <c r="AW20">
-        <v>-0.008466500317672043</v>
+        <v>2.25865949737718</v>
       </c>
       <c r="AX20">
-        <v>-0.008466500317672043</v>
+        <v>2.106351054263089</v>
       </c>
       <c r="AY20">
-        <v>-0.008466500317672043</v>
+        <v>2.303489066780262</v>
       </c>
       <c r="AZ20">
-        <v>-0.008466500317672043</v>
+        <v>2.461733806167832</v>
       </c>
       <c r="BA20">
-        <v>-0.008466500317672043</v>
+        <v>2.117909860584999</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>3.613810486033886</v>
-      </c>
-      <c r="AO21">
-        <v>3.279924948314239</v>
-      </c>
-      <c r="AP21">
-        <v>3.232426836408941</v>
-      </c>
-      <c r="AQ21">
-        <v>3.134745001805284</v>
-      </c>
-      <c r="AR21">
-        <v>2.917701676058626</v>
-      </c>
-      <c r="AS21">
-        <v>2.262351844311405</v>
-      </c>
-      <c r="AT21">
-        <v>1.164216590036715</v>
-      </c>
-      <c r="AU21">
-        <v>-1.085416662684091</v>
-      </c>
-      <c r="AV21">
-        <v>-0.5115946691845119</v>
-      </c>
-      <c r="AW21">
-        <v>-0.7472201672602652</v>
-      </c>
-      <c r="AX21">
-        <v>-1.069674659641462</v>
-      </c>
-      <c r="AY21">
-        <v>-1.011423455352578</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-1.487539588901698</v>
+        <v>2.035691341721035</v>
       </c>
       <c r="BA21">
-        <v>-1.487539588901698</v>
+        <v>1.917071481773847</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>2.863579460845456</v>
-      </c>
-      <c r="AS22">
-        <v>2.698673078500624</v>
-      </c>
-      <c r="AT22">
-        <v>2.468122977118936</v>
-      </c>
-      <c r="AU22">
-        <v>2.519656924298674</v>
-      </c>
-      <c r="AV22">
-        <v>2.469032409329386</v>
-      </c>
-      <c r="AW22">
-        <v>2.224195982330812</v>
-      </c>
-      <c r="AX22">
-        <v>1.225642290422613</v>
-      </c>
-      <c r="AY22">
-        <v>-1.489818204583271</v>
-      </c>
-      <c r="AZ22">
-        <v>-1.623731782294058</v>
-      </c>
-      <c r="BA22">
-        <v>-2.363600739745275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>2.355904523540553</v>
-      </c>
-      <c r="AW23">
-        <v>2.258659497377158</v>
-      </c>
-      <c r="AX23">
-        <v>2.106351054263089</v>
-      </c>
-      <c r="AY23">
-        <v>2.303489066780262</v>
-      </c>
-      <c r="AZ23">
-        <v>2.46173380616781</v>
-      </c>
-      <c r="BA23">
-        <v>2.117909860585021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>2.035691341721058</v>
-      </c>
-      <c r="BA24">
-        <v>1.917071481773824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>-14.1223525803845</v>
       </c>
+      <c r="BB3">
+        <v>-14.1223525803845</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>7.235571181590705</v>
       </c>
+      <c r="BB4">
+        <v>7.235571181590705</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>9.488155060723313</v>
       </c>
+      <c r="BB5">
+        <v>9.488155060723313</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>4.445724792911898</v>
       </c>
+      <c r="BB6">
+        <v>4.445724792911898</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>1.101453765199745</v>
       </c>
+      <c r="BB7">
+        <v>1.101453765199745</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>3.917168917088798</v>
       </c>
+      <c r="BB8">
+        <v>3.917168917088798</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>4.449305425651406</v>
       </c>
+      <c r="BB9">
+        <v>4.449305425651406</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>1.92981802270098</v>
       </c>
+      <c r="BB10">
+        <v>1.92981802270098</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>4.693514706708668</v>
       </c>
+      <c r="BB11">
+        <v>4.693514706708668</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>4.873158811425493</v>
       </c>
+      <c r="BB12">
+        <v>4.873158811425493</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>0.862099696137153</v>
       </c>
+      <c r="BB13">
+        <v>0.862099696137153</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>-8.794825048137467</v>
       </c>
+      <c r="BB14">
+        <v>-8.794825048137467</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>6.095721945083143</v>
       </c>
+      <c r="BB15">
+        <v>6.095721945083143</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>5.588511616267167</v>
       </c>
+      <c r="BB16">
+        <v>5.588511616267167</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>-0.008466500317649839</v>
       </c>
+      <c r="BB17">
+        <v>-0.008466500317649839</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>-1.48753958890171</v>
       </c>
+      <c r="BB18">
+        <v>-1.48753958890171</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>-2.363600739745275</v>
       </c>
+      <c r="BB19">
+        <v>-2.451276118722334</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>2.117909860584999</v>
       </c>
+      <c r="BB20">
+        <v>1.795477855501626</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>1.917071481773847</v>
       </c>
+      <c r="BB21">
+        <v>1.878198916198426</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
